--- a/EntornoServidor(PHP)/Ejercicios/Tema1/Practica1/ListaTareasPendientesUnid-2y3.xlsx
+++ b/EntornoServidor(PHP)/Ejercicios/Tema1/Practica1/ListaTareasPendientesUnid-2y3.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\XAMPP_PHP_ANDREI\htdocs\WorkSpace_VSCode\EntornoServidor(PHP)\Ejercicios\Tema1\Practica1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902232A4-D78E-46B8-94FE-0A76731F4675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>Lista de tareas pendientes (Product Backlog)</t>
   </si>
@@ -253,13 +259,38 @@
   <si>
     <t>He realizado las investigaciones propuestas en el ejercicio 20 y realizado correctamente las prácticas planteadas en los ejercicios 20 y 21, optimizando el código para que sea más eficiente</t>
   </si>
+  <si>
+    <t>Como programador de PHP debo conocer las estructuras iterativas que definie el 
+lenguaje para recorrer eficientemente los arrays</t>
+  </si>
+  <si>
+    <t>He realizado las investigaciones propuestas en el ejercicio 23 y realizado 
+correctamente las prácticas planteadas en el ejercicio 23, optimizando el código 
+para que sea más eficiente</t>
+  </si>
+  <si>
+    <t>Como programadro de PHP debe conocer cómo se pueden definir los arrays en PHP 
+en cuanto se refiere a las claves y dimensiones del arrary</t>
+  </si>
+  <si>
+    <t>He realizado las investigaciones 
+propuetas en el ejercicio 24 y realizado correctamente las  prácticas planteadas 
+en el ejercicio 23,  optimizando el código para que sea más eficiente</t>
+  </si>
+  <si>
+    <t>Como programador de PHP debo conocer cómo se definen los arrays en PHP para poder emplearlos en los guiones que cree</t>
+  </si>
+  <si>
+    <t>He realizado las investigaciones propuestas  en el ejercicio 22 y realizado 
+correctamente las prácticas planteadas en el ejercicio 22, optimizando el código 
+para que sea más eficiente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +307,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -307,47 +344,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -358,10 +413,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -399,71 +454,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,7 +546,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -514,11 +569,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -527,13 +582,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -543,7 +598,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -552,7 +607,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -561,7 +616,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -569,10 +624,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -637,654 +692,672 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="38.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="73.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="40.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>65</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60">
-      <c r="A5" s="1">
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>40</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="73.5">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="87">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <v>30</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="60">
-      <c r="A10" s="1">
+    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="73.5">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="10">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="100.5">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="10">
         <v>10</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="73.5">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="10">
         <v>15</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="100.5">
-      <c r="A14" s="1">
+    <row r="14" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="10">
         <v>20</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="154.5">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="10">
         <v>50</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="87">
-      <c r="A16" s="1">
+    <row r="16" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="10">
         <v>20</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33">
-      <c r="A17" s="1">
+    <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="10">
         <v>20</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="141">
-      <c r="A18" s="1">
+    <row r="18" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="10">
         <v>60</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="73.5">
-      <c r="A19" s="1">
+    <row r="19" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="10">
         <v>50</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="73.5">
-      <c r="A20" s="1">
+    <row r="20" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="10">
         <v>30</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="87">
-      <c r="A21" s="1">
+    <row r="21" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="10">
         <v>70</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="73.5">
-      <c r="A22" s="1">
+    <row r="22" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="10">
         <v>30</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="73.5">
-      <c r="A23" s="1">
+    <row r="23" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="10">
         <v>10</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="73.5">
-      <c r="A24" s="1">
+    <row r="24" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="10">
         <v>30</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1">
+    <row r="25" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1">
+      <c r="B25" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="B26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
       <c r="E45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
       <c r="E47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/EntornoServidor(PHP)/Ejercicios/Tema1/Practica1/ListaTareasPendientesUnid-2y3.xlsx
+++ b/EntornoServidor(PHP)/Ejercicios/Tema1/Practica1/ListaTareasPendientesUnid-2y3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\XAMPP_PHP_ANDREI\htdocs\WorkSpace_VSCode\EntornoServidor(PHP)\Ejercicios\Tema1\Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902232A4-D78E-46B8-94FE-0A76731F4675}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28D2204-1196-4180-97CC-49A2F9EE8E84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>Lista de tareas pendientes (Product Backlog)</t>
   </si>
@@ -284,6 +284,13 @@
     <t>He realizado las investigaciones propuestas  en el ejercicio 22 y realizado 
 correctamente las prácticas planteadas en el ejercicio 22, optimizando el código 
 para que sea más eficiente</t>
+  </si>
+  <si>
+    <t>Como programador de PHP debo conocer cómo crear y modificar arrays en tiempo 
+de ejecución y aprovecharme de las claves asociativas para construir código más eficiente</t>
+  </si>
+  <si>
+    <t>He realizado correctamente las prácticas planteadas en el ejercicio 25, 26 y 27 optimizando el código para que sea más eficiente</t>
   </si>
 </sst>
 </file>
@@ -344,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,6 +397,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,8 +708,8 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,12 +1163,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
